--- a/Время.xlsx
+++ b/Время.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Projects\VS_code\LOAIZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Projects\VS_Code\Loaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F4C2CC-CEF4-4FFB-833C-6FBB30260676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEEE539-B449-4899-B021-B659F0F3815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E508191-5453-4701-9CF6-265DAEB3B16C}"/>
+    <workbookView minimized="1" xWindow="2244" yWindow="2448" windowWidth="17280" windowHeight="8964" xr2:uid="{5E508191-5453-4701-9CF6-265DAEB3B16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Умножение матриц" sheetId="1" r:id="rId1"/>
@@ -329,6 +329,58 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8D5-4C64-A17D-0EF93C47182D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Умножение матриц'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E39-4368-BDC6-9A12A9966B64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1223,16 +1275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50601</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17264</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12500</xdr:rowOff>
+      <xdr:rowOff>7738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372069</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338732</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>88700</xdr:rowOff>
+      <xdr:rowOff>83938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,18 +1609,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F981B9-C279-41FB-B981-57DABFFD77CB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,60 +1628,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
         <v>2E-3</v>
       </c>
+      <c r="C2">
+        <f>A2^3/10^9</f>
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
         <v>1.6E-2</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">A3^3/10^9</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>400</v>
       </c>
       <c r="B4">
         <v>0.121</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
       <c r="B5">
         <v>1.85</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2000</v>
       </c>
       <c r="B6">
         <v>14.722</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4000</v>
       </c>
       <c r="B7">
         <v>117.36</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
       <c r="B8">
         <v>1832.2059999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1643,16 +1723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6761E-E522-43C8-B286-D50B61811840}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +1760,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1774,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1788,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
